--- a/CashFlow/CTXS_cashflow.xlsx
+++ b/CashFlow/CTXS_cashflow.xlsx
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>52643000.0</v>
+        <v>-3633000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>71000000.0</v>
+        <v>-4220000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>67000000.0</v>
+        <v>2011000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>54037000.0</v>
+        <v>3746000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>35319000.0</v>
+        <v>2978000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>16443000.0</v>
+        <v>3046000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-247000.0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-203806000.0</v>
+        <v>124191000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>7532000.0</v>
+        <v>420000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>29612000.0</v>
+        <v>413000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>63830000.0</v>
+        <v>326327000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>65662000.0</v>
+        <v>223494000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-36846000.0</v>
+        <v>36515000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>-52021000.0</v>
